--- a/excel_to_Json_Converter_in_angularJS/sample-format/usersPost.xlsx
+++ b/excel_to_Json_Converter_in_angularJS/sample-format/usersPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithilesh Thakur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitHub_source_code\excel_to_Json_Converter_angularJS\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107FBECA-4A22-4FE4-948F-DCBF3221457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9800C049-FFDB-4F28-BA3C-A408393E1633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersPost" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="342">
   <si>
     <t>firstName</t>
   </si>
@@ -1011,1310 +1011,59 @@
     <t>email</t>
   </si>
   <si>
-    <t>Dendup</t>
-  </si>
-  <si>
-    <t>Bijay</t>
-  </si>
-  <si>
-    <t>Sangay</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>Karma</t>
-  </si>
-  <si>
-    <t>Lham</t>
-  </si>
-  <si>
-    <t>Jampel</t>
-  </si>
-  <si>
-    <t>Sonam</t>
-  </si>
-  <si>
-    <t>Choki</t>
-  </si>
-  <si>
-    <t>Rinchen</t>
-  </si>
-  <si>
-    <t>Tshelthrim</t>
-  </si>
-  <si>
-    <t>Dorji</t>
-  </si>
-  <si>
-    <t>Aita</t>
-  </si>
-  <si>
-    <t>Nima</t>
-  </si>
-  <si>
-    <t>Tenzin</t>
-  </si>
-  <si>
-    <t>Rustam</t>
-  </si>
-  <si>
-    <t>Yeshi</t>
-  </si>
-  <si>
-    <t>Chophel</t>
-  </si>
-  <si>
-    <t>Dil B</t>
-  </si>
-  <si>
-    <t>Choney</t>
-  </si>
-  <si>
-    <t>Bhim</t>
-  </si>
-  <si>
     <t>Norbu</t>
   </si>
   <si>
-    <t>Kelzang</t>
-  </si>
-  <si>
-    <t>Dipendra</t>
-  </si>
-  <si>
-    <t>Tandin</t>
-  </si>
-  <si>
-    <t>Tashi</t>
-  </si>
-  <si>
-    <t>Jigme</t>
-  </si>
-  <si>
-    <t>Maita</t>
-  </si>
-  <si>
-    <t>Wangchen</t>
-  </si>
-  <si>
-    <t>Pema</t>
-  </si>
-  <si>
-    <t>Bir</t>
-  </si>
-  <si>
-    <t>Gembo</t>
-  </si>
-  <si>
-    <t>Ugyen</t>
-  </si>
-  <si>
-    <t>Khandu</t>
-  </si>
-  <si>
-    <t>Pradeep</t>
-  </si>
-  <si>
-    <t>Wangdi</t>
-  </si>
-  <si>
-    <t>Sherub</t>
-  </si>
-  <si>
-    <t>Dhan</t>
-  </si>
-  <si>
-    <t>Thinley</t>
-  </si>
-  <si>
-    <t>Dechen</t>
-  </si>
-  <si>
-    <t>Shacha</t>
-  </si>
-  <si>
-    <t>Gangaram</t>
-  </si>
-  <si>
-    <t>Narayan</t>
-  </si>
-  <si>
-    <t>Yadu</t>
-  </si>
-  <si>
-    <t>Kinley</t>
-  </si>
-  <si>
-    <t>Ramlal</t>
-  </si>
-  <si>
-    <t>Passang</t>
-  </si>
-  <si>
-    <t>Tshering</t>
-  </si>
-  <si>
-    <t>Jamtsho</t>
-  </si>
-  <si>
-    <t>Lethro</t>
-  </si>
-  <si>
-    <t>Srijina</t>
-  </si>
-  <si>
-    <t>Kezang</t>
-  </si>
-  <si>
-    <t>Chado</t>
-  </si>
-  <si>
-    <t>Kencho</t>
-  </si>
-  <si>
-    <t>Yonten</t>
-  </si>
-  <si>
-    <t>Bahadur</t>
-  </si>
-  <si>
-    <t>Pemba</t>
-  </si>
-  <si>
-    <t>Chador</t>
-  </si>
-  <si>
-    <t>Puspala</t>
-  </si>
-  <si>
-    <t>Duba</t>
-  </si>
-  <si>
-    <t>Charka</t>
-  </si>
-  <si>
-    <t>Indra</t>
-  </si>
-  <si>
-    <t>Dreme</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>Sither</t>
-  </si>
-  <si>
-    <t>Kumar Thapa</t>
-  </si>
-  <si>
-    <t>Maya Mongar</t>
-  </si>
-  <si>
-    <t>Loday</t>
-  </si>
-  <si>
-    <t>Selden</t>
-  </si>
-  <si>
-    <t>Wangchuk</t>
-  </si>
-  <si>
-    <t>Yangchen</t>
-  </si>
-  <si>
-    <t>Yangzom</t>
-  </si>
-  <si>
-    <t>Damcho</t>
-  </si>
-  <si>
-    <t>Wangchuk (Goshing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rani Limbu </t>
-  </si>
-  <si>
-    <t>Gyeltshen</t>
-  </si>
-  <si>
     <t>Lhamo</t>
   </si>
   <si>
-    <t>Chung Chung</t>
-  </si>
-  <si>
-    <t>Tshomo</t>
-  </si>
-  <si>
-    <t>Chetri</t>
-  </si>
-  <si>
     <t>Dema</t>
   </si>
   <si>
-    <t>Rana</t>
-  </si>
-  <si>
-    <t>Jurme</t>
-  </si>
-  <si>
-    <t>Maya Subba</t>
-  </si>
-  <si>
     <t>Rinzin</t>
   </si>
   <si>
-    <t>Subba</t>
-  </si>
-  <si>
-    <t>Chojay</t>
-  </si>
-  <si>
-    <t>Bdr subba</t>
-  </si>
-  <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>B Gurung</t>
-  </si>
-  <si>
-    <t>Wangmo</t>
-  </si>
-  <si>
-    <t>Tamang</t>
-  </si>
-  <si>
-    <t>Lachi</t>
-  </si>
-  <si>
-    <t>gyeltshen</t>
-  </si>
-  <si>
-    <t>Layo</t>
-  </si>
-  <si>
-    <t>Prk Pokhrel</t>
-  </si>
-  <si>
-    <t>Pathi Homagai</t>
-  </si>
-  <si>
-    <t>Kinzang</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>wangmo</t>
-  </si>
-  <si>
-    <t>Phuntsho</t>
-  </si>
-  <si>
-    <t>Drakpa</t>
-  </si>
-  <si>
-    <t>Yangden</t>
-  </si>
-  <si>
-    <t>Drukpa</t>
-  </si>
-  <si>
-    <t>Rai</t>
-  </si>
-  <si>
-    <t>Zangmo</t>
-  </si>
-  <si>
-    <t>Lhadon</t>
-  </si>
-  <si>
-    <t>Choden</t>
-  </si>
-  <si>
-    <t>Singh Gurung</t>
-  </si>
-  <si>
-    <t>Tsheirng</t>
-  </si>
-  <si>
-    <t>Tsheltrim</t>
-  </si>
-  <si>
-    <t>Lhendrup</t>
-  </si>
-  <si>
-    <t>Tshewang</t>
-  </si>
-  <si>
-    <t>Pelmo</t>
-  </si>
-  <si>
-    <t>Pani Bhandari</t>
-  </si>
-  <si>
-    <t>Maya Rai</t>
-  </si>
-  <si>
-    <t>Cheten</t>
-  </si>
-  <si>
-    <t>Denkar</t>
-  </si>
-  <si>
-    <t>dendup_cp</t>
-  </si>
-  <si>
-    <t>bijay_cp</t>
-  </si>
-  <si>
-    <t>slethro_cp</t>
-  </si>
-  <si>
-    <t>krishna_cp</t>
-  </si>
-  <si>
-    <t>kloday_cp</t>
-  </si>
-  <si>
-    <t>lham_cp</t>
-  </si>
-  <si>
-    <t>jampel_cp</t>
-  </si>
-  <si>
-    <t>swangchuk_cp</t>
-  </si>
-  <si>
-    <t>kyangchen_cp</t>
-  </si>
-  <si>
-    <t>kyangzom_cp</t>
-  </si>
-  <si>
-    <t>kwangchuk_cp</t>
-  </si>
-  <si>
-    <t>choki_cp</t>
-  </si>
-  <si>
-    <t>rdamcho_cp</t>
-  </si>
-  <si>
-    <t>sonam_cp</t>
-  </si>
-  <si>
-    <t>tshelthrim_cp</t>
-  </si>
-  <si>
-    <t>dtenzin_cp</t>
-  </si>
-  <si>
-    <t>aita_cp</t>
-  </si>
-  <si>
-    <t>nima_cp</t>
-  </si>
-  <si>
-    <t>tlhamo_cp</t>
-  </si>
-  <si>
-    <t>rchung_cp</t>
-  </si>
-  <si>
-    <t>ttenzin_cp</t>
-  </si>
-  <si>
-    <t>stshomo_cp</t>
-  </si>
-  <si>
-    <t>rustam_cp</t>
-  </si>
-  <si>
-    <t>ywangdi_cp</t>
-  </si>
-  <si>
-    <t>kdema_cp</t>
-  </si>
-  <si>
-    <t>chophel_cp</t>
-  </si>
-  <si>
-    <t>dil b_cp</t>
-  </si>
-  <si>
-    <t>tjurme_cp</t>
-  </si>
-  <si>
-    <t>choney_cp</t>
-  </si>
-  <si>
-    <t>bhim_cp</t>
-  </si>
-  <si>
-    <t>norbu_cp</t>
-  </si>
-  <si>
-    <t>cdema_cp</t>
-  </si>
-  <si>
-    <t>kelzang_cp</t>
-  </si>
-  <si>
-    <t>dipendra_cp</t>
-  </si>
-  <si>
-    <t>tandin_cp</t>
-  </si>
-  <si>
-    <t>tdendup_cp</t>
-  </si>
-  <si>
-    <t>tchojey_cp</t>
-  </si>
-  <si>
-    <t>stenzin_cp</t>
-  </si>
-  <si>
-    <t>jigme_cp</t>
-  </si>
-  <si>
-    <t>maita_cp</t>
-  </si>
-  <si>
-    <t>wangchen_cp</t>
-  </si>
-  <si>
-    <t>ptshering_cp</t>
-  </si>
-  <si>
-    <t>bir_cp</t>
-  </si>
-  <si>
-    <t>gembo_cp</t>
-  </si>
-  <si>
-    <t>ulhamo_cp</t>
-  </si>
-  <si>
-    <t>khandu_cp</t>
-  </si>
-  <si>
-    <t>pradeep_cp</t>
-  </si>
-  <si>
-    <t>wangdi_cp</t>
-  </si>
-  <si>
-    <t>sherub_cp</t>
-  </si>
-  <si>
-    <t>dhan_cp</t>
-  </si>
-  <si>
-    <t>thinley_cp</t>
-  </si>
-  <si>
-    <t>dwangmo_cp</t>
-  </si>
-  <si>
-    <t>shacha_cp</t>
-  </si>
-  <si>
-    <t>gangaram_cp</t>
-  </si>
-  <si>
-    <t>narayan_cp</t>
-  </si>
-  <si>
-    <t>yadu_cp</t>
-  </si>
-  <si>
-    <t>karmatenzin_cp</t>
-  </si>
-  <si>
-    <t>pemakinzang_cp</t>
-  </si>
-  <si>
-    <t>tashi_cp</t>
-  </si>
-  <si>
-    <t>kinleydorzi_cp</t>
-  </si>
-  <si>
-    <t>sonamtenzin_cp</t>
-  </si>
-  <si>
-    <t>ramlal_cp</t>
-  </si>
-  <si>
-    <t>dgyeltshen_cp</t>
-  </si>
-  <si>
-    <t>sonamwangmo_cp</t>
-  </si>
-  <si>
-    <t>sangaywangmo_cp</t>
-  </si>
-  <si>
-    <t>passang_cp</t>
-  </si>
-  <si>
-    <t>tshering_cp</t>
-  </si>
-  <si>
-    <t>jamtsho_cp</t>
-  </si>
-  <si>
-    <t>tandinwangchuk_cp</t>
-  </si>
-  <si>
-    <t>yeshi_cp</t>
-  </si>
-  <si>
-    <t>dorji_cp</t>
-  </si>
-  <si>
-    <t>sonamnorbu_cp</t>
-  </si>
-  <si>
-    <t>tsheringyangden_cp</t>
-  </si>
-  <si>
-    <t>lethro_cp</t>
-  </si>
-  <si>
-    <t>sonamtsheing_cp</t>
-  </si>
-  <si>
-    <t>tashidendup_cp</t>
-  </si>
-  <si>
-    <t>dorjigyeltshen_cp</t>
-  </si>
-  <si>
-    <t>tsheringdema_cp</t>
-  </si>
-  <si>
-    <t>srijina_cp</t>
-  </si>
-  <si>
-    <t>dechen_cp</t>
-  </si>
-  <si>
-    <t>tsheringzangmo_cp</t>
-  </si>
-  <si>
-    <t>kezang_cp</t>
-  </si>
-  <si>
-    <t>chado_cp</t>
-  </si>
-  <si>
-    <t>tsheringphuntsho_cp</t>
-  </si>
-  <si>
-    <t>kencho_cp</t>
-  </si>
-  <si>
-    <t>yonten_cp</t>
-  </si>
-  <si>
-    <t>udrukpa_cp</t>
-  </si>
-  <si>
-    <t>sonamthinley_cp</t>
-  </si>
-  <si>
-    <t>sonamchoden_cp</t>
-  </si>
-  <si>
-    <t>sangaydorzi_cp</t>
-  </si>
-  <si>
-    <t>yeshidorzi_cp</t>
-  </si>
-  <si>
-    <t>kdorji_cp</t>
-  </si>
-  <si>
-    <t>bahadur_cp</t>
-  </si>
-  <si>
-    <t>pemba_cp</t>
-  </si>
-  <si>
-    <t>ktsheltrium_cp</t>
-  </si>
-  <si>
-    <t>slhendrup_cp</t>
-  </si>
-  <si>
-    <t>rinchentshewang_cp</t>
-  </si>
-  <si>
-    <t>chador_cp</t>
-  </si>
-  <si>
-    <t>tenzindema_cp</t>
-  </si>
-  <si>
-    <t>puspala_cp</t>
-  </si>
-  <si>
-    <t>ugyennorbu_cp</t>
-  </si>
-  <si>
-    <t>duba_cp</t>
-  </si>
-  <si>
-    <t>stshering_cp</t>
-  </si>
-  <si>
-    <t>charka_cp</t>
-  </si>
-  <si>
-    <t>tashinorbu_cp</t>
-  </si>
-  <si>
-    <t>indra_cp</t>
-  </si>
-  <si>
-    <t>dreme_cp</t>
-  </si>
-  <si>
-    <t>rb_cp</t>
-  </si>
-  <si>
-    <t>karma_cp</t>
-  </si>
-  <si>
-    <t>sither_cp</t>
-  </si>
-  <si>
-    <t>tsheringdenkar_cp</t>
-  </si>
-  <si>
-    <t>dhendupdorji95@gmail.com</t>
-  </si>
-  <si>
-    <t>bkthapa63@gmail.com</t>
-  </si>
-  <si>
-    <t>sanglethro@gmail.com</t>
-  </si>
-  <si>
-    <t>krishmezh678@gmail.com</t>
-  </si>
-  <si>
-    <t>lodaykarma61@gmail.com</t>
-  </si>
-  <si>
-    <t>lhamsangay5@gmail.com</t>
-  </si>
-  <si>
-    <t>jampel17895630@gmail.com</t>
-  </si>
-  <si>
-    <t>sonamwangchuk86@gmail.com</t>
-  </si>
-  <si>
-    <t>karmayangchen808@gmail.com</t>
-  </si>
-  <si>
-    <t>karmayangzom1994@gmail.com</t>
-  </si>
-  <si>
-    <t>karmawangchuk239@gmail.com</t>
-  </si>
-  <si>
-    <t>chokinima10@gmail.com</t>
-  </si>
-  <si>
-    <t>rdamcho1975@gmail.com</t>
-  </si>
-  <si>
-    <t>sonamtshozang@gmail.com</t>
-  </si>
-  <si>
-    <t>tshilthrimdorjigm@gmail.com</t>
-  </si>
-  <si>
-    <t>dorjitenzin12@gmail.com</t>
-  </si>
-  <si>
-    <t>aitarani504@gmail.com</t>
-  </si>
-  <si>
-    <t>nimagyeltshen@gmail.com</t>
-  </si>
-  <si>
-    <t>tenxin_09@yahoo.com</t>
-  </si>
-  <si>
-    <t>rinchenchungchung@gmail.com</t>
-  </si>
-  <si>
-    <t>tendorji2017@gmail.com</t>
-  </si>
-  <si>
-    <t>sonamtshomo816@gmail.com</t>
-  </si>
-  <si>
-    <t>rustam.chhetri@gmail.com</t>
-  </si>
-  <si>
-    <t>y.wangdi6617@gmail.com</t>
-  </si>
-  <si>
-    <t>demakarma1987@gmail.com</t>
-  </si>
-  <si>
-    <t>11111980c@gmail.com</t>
-  </si>
-  <si>
-    <t>dillayrana@gmail.com</t>
-  </si>
-  <si>
-    <t>tenz2012@gmail.com</t>
-  </si>
-  <si>
-    <t>choneydorji30@gmail.com</t>
-  </si>
-  <si>
-    <t>bimasubba1998@gmail.com</t>
-  </si>
-  <si>
-    <t>nrinzin@bumthang.gov.bt</t>
-  </si>
-  <si>
-    <t>demachoki2018@gmail.com</t>
-  </si>
-  <si>
-    <t>kelzangtshering96@gmail.com</t>
-  </si>
-  <si>
-    <t>dipendrasubba007@gmail.com</t>
-  </si>
-  <si>
-    <t>ttttshering@gmail.com</t>
-  </si>
-  <si>
-    <t>tdhendup19@gmail.com</t>
-  </si>
-  <si>
-    <t>uraphc2020@gmail.com</t>
-  </si>
-  <si>
-    <t>stenzin@bumthang.gov.bt</t>
-  </si>
-  <si>
-    <t>jkelzang@bumthang.gov.bt</t>
-  </si>
-  <si>
-    <t>maitasubba105@gmail.com</t>
-  </si>
-  <si>
-    <t>wangchen1414@gmail.com</t>
-  </si>
-  <si>
-    <t>pema.health10@gmail.com</t>
-  </si>
-  <si>
-    <t>labbir1986@gmail.com</t>
-  </si>
-  <si>
-    <t>gwangdi71@gmail.com</t>
-  </si>
-  <si>
-    <t>lhamougyen98@gmail.com</t>
-  </si>
-  <si>
-    <t>khanduwangmo314@gmail.com</t>
-  </si>
-  <si>
-    <t>yugseltamang7@gmail.com</t>
-  </si>
-  <si>
-    <t>wangdigyeltshen1@gmail.com</t>
-  </si>
-  <si>
-    <t>sjamtsho2014@gmail.com</t>
-  </si>
-  <si>
-    <t>laachyiidhan22@gmail.com</t>
-  </si>
-  <si>
-    <t>dorjithinley14@gmail.com</t>
-  </si>
-  <si>
-    <t>deejazz64@gmail.com</t>
-  </si>
-  <si>
-    <t>sgyaltshen123@gmail.com</t>
-  </si>
-  <si>
-    <t>gangaplayo@gmail.com</t>
-  </si>
-  <si>
-    <t>Narayanpokhrel1969@gmail.com</t>
-  </si>
-  <si>
-    <t>yphomagai@gmail.com</t>
-  </si>
-  <si>
-    <t>karmatenzin009@gmail.com</t>
-  </si>
-  <si>
-    <t>jigmecholingbhu@gmail.com</t>
-  </si>
-  <si>
-    <t>Tashitshering1980@gmail.com</t>
-  </si>
-  <si>
-    <t>kinleyd387@gmail.com</t>
-  </si>
-  <si>
-    <t>sonambotia@gmail.com</t>
-  </si>
-  <si>
-    <t>ghimirayramlal@gmail.com</t>
-  </si>
-  <si>
-    <t>Dorjigyel173@gmail.com</t>
-  </si>
-  <si>
-    <t>osoomoos@gmail.com</t>
-  </si>
-  <si>
-    <t>sangaywangmo194@gmail.com</t>
-  </si>
-  <si>
-    <t>sonam.p.ongmoo@gmai.com</t>
-  </si>
-  <si>
-    <t>tphuntsho338@gmail.com</t>
-  </si>
-  <si>
-    <t>Gawajamtsho123@gail.com</t>
-  </si>
-  <si>
-    <t>Pemawangchen562@gmail.om</t>
-  </si>
-  <si>
-    <t>yeshidorji1976@gmail.com</t>
-  </si>
-  <si>
-    <t>dodrakpa@gmail.com</t>
-  </si>
-  <si>
-    <t>somaxwelnobuz31177@gmail.com</t>
-  </si>
-  <si>
-    <t>Tsheden807@gmail.com</t>
-  </si>
-  <si>
-    <t>ldrukpa89@gmail.com</t>
-  </si>
-  <si>
-    <t>tsherings613@gmail.com</t>
-  </si>
-  <si>
-    <t>tashidendup@trongsa.gov.bt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgyeltshen@trongsa.gov.bt </t>
-  </si>
-  <si>
-    <t>tsheringd1989@gmail.com</t>
-  </si>
-  <si>
-    <t>srijanarai210@gmail.com</t>
-  </si>
-  <si>
-    <t>dechen40wangmo@gmail.com</t>
-  </si>
-  <si>
-    <t>tshe17zang@gmail.cocm</t>
-  </si>
-  <si>
-    <t>kezladen29@gmail.com</t>
-  </si>
-  <si>
-    <t>chhado33health@gmail.com</t>
-  </si>
-  <si>
-    <t>tpkinzls@gmail.com</t>
-  </si>
-  <si>
-    <t>kenchowangmo136@gmail.com</t>
-  </si>
-  <si>
-    <t>gyeltsheny6@gmail.com</t>
-  </si>
-  <si>
-    <t>uduk74@gmail.com</t>
-  </si>
-  <si>
-    <t>somthinley123@gmail.com</t>
-  </si>
-  <si>
-    <t>sonamchoden273@gmail.com</t>
-  </si>
-  <si>
-    <t>sangaykesa@gmail.com</t>
-  </si>
-  <si>
-    <t>yeshi17466118@gmail.com</t>
-  </si>
-  <si>
-    <t>dorjik53@gmail.com</t>
-  </si>
-  <si>
-    <t>gbahadrsing1@gmail.com</t>
-  </si>
-  <si>
-    <t>pemyangcee@gmail.com</t>
-  </si>
-  <si>
-    <t>kastertsheltrim@gmail.com</t>
-  </si>
-  <si>
-    <t>slhendup80@gmail.com</t>
-  </si>
-  <si>
-    <t>rintsho66@gmail.com</t>
-  </si>
-  <si>
-    <t>chadorkarma2015@gmail.com</t>
-  </si>
-  <si>
-    <t>tenzindemaofficial@gmail.com</t>
-  </si>
-  <si>
-    <t>plalkharmitse@gmail.com</t>
-  </si>
-  <si>
-    <t>norbuu274@gmail.com</t>
-  </si>
-  <si>
-    <t>dubatshering1972@gmail.com</t>
-  </si>
-  <si>
-    <t>somtshering2016@gmail.com</t>
-  </si>
-  <si>
-    <t>charkabhandari2014@gmail.com</t>
-  </si>
-  <si>
-    <t>tashinob82@gmail.com</t>
-  </si>
-  <si>
-    <t>mayaindra68@gmail.com</t>
-  </si>
-  <si>
-    <t>dremecheten123@gmail.com</t>
-  </si>
-  <si>
-    <t>phuentenchubhu@gmail.com</t>
-  </si>
-  <si>
-    <t>karmakarma1972@gmail.com</t>
-  </si>
-  <si>
-    <t>sitharwangmo79@gmail.com</t>
-  </si>
-  <si>
-    <t>tshedenkar14@gmail.com</t>
-  </si>
-  <si>
-    <t>17919677/ 77919677</t>
-  </si>
-  <si>
-    <t>17741442/ 77238423</t>
-  </si>
-  <si>
-    <t>17896262/ 77452428</t>
-  </si>
-  <si>
     <t>Bhutan@123</t>
   </si>
   <si>
-    <t>iZYJp5qZoSq,IOjWVUOzlrp</t>
-  </si>
-  <si>
-    <t>p7oPnhK9GKv</t>
-  </si>
-  <si>
-    <t>oKOUeAurgxM</t>
-  </si>
-  <si>
-    <t>SHovIYUy7KN</t>
-  </si>
-  <si>
-    <t>wqf5sXfxdOn</t>
-  </si>
-  <si>
-    <t>WqZtyDUQ1bc</t>
-  </si>
-  <si>
-    <t>SUJdi3RCPuB</t>
-  </si>
-  <si>
-    <t>AglS3Tp2bj9</t>
-  </si>
-  <si>
-    <t>NvThsHzY0Zr</t>
-  </si>
-  <si>
-    <t>I5X6eZSPjzv</t>
-  </si>
-  <si>
-    <t>ZRjmGgVdlKw</t>
-  </si>
-  <si>
-    <t>Yt8GWLFlKok</t>
-  </si>
-  <si>
-    <t>hOne7RswxWG</t>
-  </si>
-  <si>
-    <t>P8u4zRHVwcn</t>
-  </si>
-  <si>
-    <t>wobavE0SkLw</t>
-  </si>
-  <si>
-    <t>K09HXQcojJ2</t>
-  </si>
-  <si>
-    <t>OTZYaumwH80</t>
-  </si>
-  <si>
-    <t>e35UAbzgY76</t>
-  </si>
-  <si>
-    <t>tQCH47FZfer</t>
-  </si>
-  <si>
-    <t>RD8MU31Q9gu</t>
-  </si>
-  <si>
-    <t>i0ZSW8wk3eN</t>
-  </si>
-  <si>
-    <t>NGEI6rFwznX</t>
-  </si>
-  <si>
-    <t>mszxBN8adi9</t>
-  </si>
-  <si>
-    <t>R1iWHxe0fkY</t>
-  </si>
-  <si>
-    <t>qLqhSgv1CKP</t>
-  </si>
-  <si>
-    <t>NGoIR2kDBav</t>
-  </si>
-  <si>
-    <t>X7qtA06Rpcf</t>
-  </si>
-  <si>
-    <t>pb93cmkf76H</t>
-  </si>
-  <si>
-    <t>KLozHVcdhlm</t>
-  </si>
-  <si>
-    <t>aA9J2RDyoip</t>
-  </si>
-  <si>
-    <t>s9yAE7NaUFG</t>
-  </si>
-  <si>
-    <t>FzJANjrkZ97</t>
-  </si>
-  <si>
-    <t>maCJNcVXl5B</t>
-  </si>
-  <si>
-    <t>ID4nLbdvMCw</t>
-  </si>
-  <si>
-    <t>YpDiQ3L8nrV</t>
-  </si>
-  <si>
-    <t>GxjQ3G7n2Hl</t>
-  </si>
-  <si>
-    <t>tMTtBSIYsar</t>
-  </si>
-  <si>
-    <t>X89NvAwrXhB</t>
-  </si>
-  <si>
-    <t>LHufYMbnwK5</t>
-  </si>
-  <si>
-    <t>dckdOPHB2TF</t>
-  </si>
-  <si>
-    <t>HmzW2IPN2hD</t>
-  </si>
-  <si>
-    <t>b0QbNsJupLM</t>
-  </si>
-  <si>
-    <t>u0dg2kMnToa</t>
-  </si>
-  <si>
-    <t>GRFAvR5XNIN</t>
-  </si>
-  <si>
-    <t>ujf7P86hzNo</t>
-  </si>
-  <si>
-    <t>zGAOhvb742w</t>
-  </si>
-  <si>
-    <t>dd7U0DujPl1</t>
-  </si>
-  <si>
-    <t>dJWCwM7B18I</t>
-  </si>
-  <si>
-    <t>nqjLigtbc7Y</t>
-  </si>
-  <si>
-    <t>Mm9RCLhU68I</t>
-  </si>
-  <si>
-    <t>hqGTNcb74Hp</t>
-  </si>
-  <si>
-    <t>pp9PzrmYEcb</t>
-  </si>
-  <si>
-    <t>DrDVYHNWdqi</t>
-  </si>
-  <si>
-    <t>s0xSz8Qps5Z</t>
-  </si>
-  <si>
-    <t>FZEY2CQV5DL</t>
-  </si>
-  <si>
-    <t>YTNFtg6OAry</t>
-  </si>
-  <si>
-    <t>GbnMZ6gBEk5</t>
-  </si>
-  <si>
-    <t>tHE8pLvg6To</t>
-  </si>
-  <si>
-    <t>ezHhP25UKjv</t>
-  </si>
-  <si>
-    <t>j8znJkO0ZhT</t>
-  </si>
-  <si>
-    <t>B2tRgNOAdaX</t>
-  </si>
-  <si>
-    <t>Von1cQIK8GT</t>
-  </si>
-  <si>
-    <t>MqR6RhC24S9</t>
-  </si>
-  <si>
-    <t>TU5zKHQ1OR3</t>
-  </si>
-  <si>
-    <t>nHX0MkV6uUF</t>
-  </si>
-  <si>
-    <t>N0XrjlFQaHs</t>
-  </si>
-  <si>
-    <t>ZOWKjP7cAjq</t>
-  </si>
-  <si>
-    <t>gnK5bv7aAVu</t>
-  </si>
-  <si>
-    <t>wcHkFg2l6Rr</t>
-  </si>
-  <si>
-    <t>wxWhDA9OQoC</t>
-  </si>
-  <si>
-    <t>tkMPvbtw5jR</t>
-  </si>
-  <si>
-    <t>zqcyugL2Yn9</t>
-  </si>
-  <si>
-    <t>Wrbn2KP2NNQ</t>
-  </si>
-  <si>
-    <t>IDiyJ9Hp4Et</t>
-  </si>
-  <si>
-    <t>gCol43Z0LP2</t>
-  </si>
-  <si>
-    <t>jjW5jZNrX38</t>
-  </si>
-  <si>
-    <t>CgqXtlRy6T6</t>
-  </si>
-  <si>
-    <t>z3E9Isglomg</t>
-  </si>
-  <si>
-    <t>tIXjpfnVRAQ</t>
-  </si>
-  <si>
-    <t>rGE4vNLrajd</t>
-  </si>
-  <si>
-    <t>OV3SpUzNEGc</t>
-  </si>
-  <si>
-    <t>TZ3QcXpoaBI</t>
-  </si>
-  <si>
-    <t>Y37PDANxF0U</t>
-  </si>
-  <si>
-    <t>LnAdEDoGc45</t>
-  </si>
-  <si>
-    <t>DximG7XhQOM</t>
-  </si>
-  <si>
-    <t>aNEkAt9TPYK</t>
-  </si>
-  <si>
-    <t>ydJoN5pzEw9</t>
-  </si>
-  <si>
-    <t>CTxISwHbeNQ</t>
-  </si>
-  <si>
-    <t>l1eijl79Lat</t>
+    <t>userInfoUid</t>
+  </si>
+  <si>
+    <t>JWTHDAY8PIE</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>yrB6vc5Ip3r</t>
+  </si>
+  <si>
+    <t>JNI1blJo433</t>
+  </si>
+  <si>
+    <t>Jgc02tIKupW</t>
+  </si>
+  <si>
+    <t>TU97X7N4zTO</t>
+  </si>
+  <si>
+    <t>norbur_LT</t>
+  </si>
+  <si>
+    <t>KXWydl5cker</t>
+  </si>
+  <si>
+    <t>dema_LT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2498,8 +1247,13 @@
       <color rgb="FF333333"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Twentieth Century"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2691,8 +1445,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2822,6 +1582,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2868,7 +1643,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2912,6 +1687,15 @@
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2958,7 +1742,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3295,7 +2109,7 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="15.453125" customWidth="1"/>
@@ -3310,7 +2124,7 @@
     <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +2159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -3372,7 +2186,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -3398,7 +2212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -3424,7 +2238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -3450,7 +2264,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -3476,7 +2290,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>227</v>
       </c>
@@ -3502,7 +2316,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -3528,7 +2342,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -3554,7 +2368,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -3580,7 +2394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -3606,7 +2420,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -3632,7 +2446,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -3658,7 +2472,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -3684,7 +2498,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -3710,7 +2524,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -3736,7 +2550,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3762,7 +2576,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -3788,7 +2602,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>231</v>
       </c>
@@ -3814,7 +2628,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -3840,7 +2654,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -3866,7 +2680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>232</v>
       </c>
@@ -3892,7 +2706,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -3918,7 +2732,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -3944,7 +2758,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>233</v>
       </c>
@@ -3970,7 +2784,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -3996,7 +2810,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -4022,7 +2836,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -4048,7 +2862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -4074,7 +2888,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>234</v>
       </c>
@@ -4100,7 +2914,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -4126,7 +2940,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -4152,7 +2966,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -4178,7 +2992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="14" customHeight="1">
       <c r="A34" t="s">
         <v>235</v>
       </c>
@@ -4204,7 +3018,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>235</v>
       </c>
@@ -4230,7 +3044,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>235</v>
       </c>
@@ -4256,7 +3070,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>235</v>
       </c>
@@ -4282,7 +3096,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>235</v>
       </c>
@@ -4308,7 +3122,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>235</v>
       </c>
@@ -4334,7 +3148,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>235</v>
       </c>
@@ -4360,7 +3174,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>235</v>
       </c>
@@ -4386,7 +3200,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>235</v>
       </c>
@@ -4412,7 +3226,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -4438,7 +3252,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>235</v>
       </c>
@@ -4464,7 +3278,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -4490,7 +3304,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>236</v>
       </c>
@@ -4516,7 +3330,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -4542,7 +3356,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>235</v>
       </c>
@@ -4568,7 +3382,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -4594,7 +3408,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -4620,7 +3434,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>235</v>
       </c>
@@ -4646,7 +3460,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>235</v>
       </c>
@@ -4672,7 +3486,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -4698,7 +3512,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -4724,7 +3538,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>235</v>
       </c>
@@ -4750,7 +3564,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>235</v>
       </c>
@@ -4776,7 +3590,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>235</v>
       </c>
@@ -4802,7 +3616,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>235</v>
       </c>
@@ -4828,7 +3642,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -4854,7 +3668,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -4880,7 +3694,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -4906,7 +3720,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>235</v>
       </c>
@@ -4932,7 +3746,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>235</v>
       </c>
@@ -4958,7 +3772,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>235</v>
       </c>
@@ -4984,7 +3798,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -5010,7 +3824,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>235</v>
       </c>
@@ -5036,7 +3850,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>235</v>
       </c>
@@ -5062,7 +3876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -5088,7 +3902,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>235</v>
       </c>
@@ -5114,7 +3928,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -5140,7 +3954,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>235</v>
       </c>
@@ -5166,7 +3980,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>235</v>
       </c>
@@ -5192,7 +4006,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -5218,7 +4032,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -5244,7 +4058,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>235</v>
       </c>
@@ -5270,7 +4084,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>235</v>
       </c>
@@ -5296,7 +4110,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>235</v>
       </c>
@@ -5322,7 +4136,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5348,7 +4162,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -5374,7 +4188,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -5400,7 +4214,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -5426,7 +4240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>235</v>
       </c>
@@ -5452,7 +4266,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>235</v>
       </c>
@@ -5478,7 +4292,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>235</v>
       </c>
@@ -5504,7 +4318,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>235</v>
       </c>
@@ -5530,7 +4344,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>235</v>
       </c>
@@ -5556,7 +4370,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>235</v>
       </c>
@@ -5582,7 +4396,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>235</v>
       </c>
@@ -5608,7 +4422,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>235</v>
       </c>
@@ -5634,7 +4448,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>235</v>
       </c>
@@ -5660,7 +4474,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>235</v>
       </c>
@@ -5686,7 +4500,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>235</v>
       </c>
@@ -5712,7 +4526,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>235</v>
       </c>
@@ -5738,7 +4552,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>235</v>
       </c>
@@ -5764,7 +4578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>235</v>
       </c>
@@ -5790,7 +4604,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>235</v>
       </c>
@@ -5816,7 +4630,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>235</v>
       </c>
@@ -5842,7 +4656,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>235</v>
       </c>
@@ -5868,7 +4682,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -5894,7 +4708,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -5920,7 +4734,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -5946,7 +4760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>240</v>
       </c>
@@ -5972,7 +4786,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -5998,7 +4812,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>240</v>
       </c>
@@ -6024,7 +4838,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>241</v>
       </c>
@@ -6050,7 +4864,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>241</v>
       </c>
@@ -6076,7 +4890,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>242</v>
       </c>
@@ -6102,7 +4916,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>242</v>
       </c>
@@ -6128,7 +4942,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>242</v>
       </c>
@@ -6154,7 +4968,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -6180,7 +4994,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -6206,7 +5020,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>243</v>
       </c>
@@ -6232,7 +5046,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -6258,7 +5072,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -6284,7 +5098,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>233</v>
       </c>
@@ -6310,7 +5124,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -6336,7 +5150,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>245</v>
       </c>
@@ -6362,7 +5176,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>245</v>
       </c>
@@ -6388,7 +5202,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>228</v>
       </c>
@@ -6414,7 +5228,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>228</v>
       </c>
@@ -6440,7 +5254,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -6466,7 +5280,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>228</v>
       </c>
@@ -6492,7 +5306,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>228</v>
       </c>
@@ -6518,7 +5332,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -6544,7 +5358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -6570,7 +5384,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>247</v>
       </c>
@@ -6596,7 +5410,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>247</v>
       </c>
@@ -6622,7 +5436,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -6648,7 +5462,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -6674,7 +5488,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>247</v>
       </c>
@@ -6700,7 +5514,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>248</v>
       </c>
@@ -6726,7 +5540,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>248</v>
       </c>
@@ -6752,7 +5566,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>248</v>
       </c>
@@ -6778,7 +5592,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -6804,7 +5618,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>248</v>
       </c>
@@ -6830,7 +5644,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>248</v>
       </c>
@@ -6856,7 +5670,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>248</v>
       </c>
@@ -6882,7 +5696,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>248</v>
       </c>
@@ -6908,7 +5722,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>248</v>
       </c>
@@ -6934,7 +5748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>248</v>
       </c>
@@ -6960,7 +5774,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>248</v>
       </c>
@@ -6986,7 +5800,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>248</v>
       </c>
@@ -7164,3732 +5978,984 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE86208-D500-4075-B05C-6F91CC099C57}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J112"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="21">
+        <v>9868067888</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="21">
+        <v>9868067888</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="14">
-        <v>17737955</v>
-      </c>
-      <c r="E2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I2" t="s">
-        <v>672</v>
-      </c>
-      <c r="J2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="K3" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="B3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="14">
-        <v>17886544</v>
-      </c>
-      <c r="E3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I3" t="s">
-        <v>672</v>
-      </c>
-      <c r="J3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D4" s="14">
-        <v>17968127</v>
-      </c>
-      <c r="E4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I4" t="s">
-        <v>672</v>
-      </c>
-      <c r="J4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D5" s="14">
-        <v>17975748</v>
-      </c>
-      <c r="E5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I5" t="s">
-        <v>673</v>
-      </c>
-      <c r="J5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="D4" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="21">
+        <v>9868067888</v>
+      </c>
+      <c r="F4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="14">
-        <v>17554037</v>
-      </c>
-      <c r="E6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I6" t="s">
-        <v>674</v>
-      </c>
-      <c r="J6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" s="14">
-        <v>77944922</v>
-      </c>
-      <c r="E7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I7" t="s">
-        <v>675</v>
-      </c>
-      <c r="J7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D8" s="14">
-        <v>17895630</v>
-      </c>
-      <c r="E8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I8" t="s">
-        <v>676</v>
-      </c>
-      <c r="J8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" s="14">
-        <v>17677521</v>
-      </c>
-      <c r="E9" t="s">
-        <v>451</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I9" t="s">
-        <v>677</v>
-      </c>
-      <c r="J9" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D10" s="14">
-        <v>17757215</v>
-      </c>
-      <c r="E10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I10" t="s">
-        <v>678</v>
-      </c>
-      <c r="J10" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" t="s">
-        <v>564</v>
-      </c>
-      <c r="D11" s="14">
-        <v>17387801</v>
-      </c>
-      <c r="E11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I11" t="s">
-        <v>679</v>
-      </c>
-      <c r="J11" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" t="s">
-        <v>565</v>
-      </c>
-      <c r="D12" s="14">
-        <v>17495468</v>
-      </c>
-      <c r="E12" t="s">
-        <v>454</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I12" t="s">
-        <v>680</v>
-      </c>
-      <c r="J12" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" t="s">
-        <v>566</v>
-      </c>
-      <c r="D13" s="14">
-        <v>17654107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I13" t="s">
-        <v>681</v>
-      </c>
-      <c r="J13" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="H4" t="s">
         <v>335</v>
       </c>
-      <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" t="s">
-        <v>567</v>
-      </c>
-      <c r="D14" s="14">
-        <v>17694570</v>
-      </c>
-      <c r="E14" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I14" t="s">
-        <v>682</v>
-      </c>
-      <c r="J14" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" t="s">
-        <v>568</v>
-      </c>
-      <c r="D15" s="14">
-        <v>17572809</v>
-      </c>
-      <c r="E15" t="s">
-        <v>457</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I15" t="s">
-        <v>683</v>
-      </c>
-      <c r="J15" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B16" t="s">
+      <c r="J4" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C16" t="s">
-        <v>569</v>
-      </c>
-      <c r="D16" s="14">
-        <v>17249827</v>
-      </c>
-      <c r="E16" t="s">
-        <v>458</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I16" t="s">
-        <v>684</v>
-      </c>
-      <c r="J16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="K4" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D17" s="14">
-        <v>17580675</v>
-      </c>
-      <c r="E17" t="s">
-        <v>459</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I17" t="s">
-        <v>685</v>
-      </c>
-      <c r="J17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" t="s">
-        <v>571</v>
-      </c>
-      <c r="D18" s="14">
-        <v>17521095</v>
-      </c>
-      <c r="E18" t="s">
-        <v>460</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I18" t="s">
-        <v>686</v>
-      </c>
-      <c r="J18" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" t="s">
-        <v>572</v>
-      </c>
-      <c r="D19" s="14">
-        <v>17857061</v>
-      </c>
-      <c r="E19" t="s">
-        <v>461</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I19" t="s">
-        <v>687</v>
-      </c>
-      <c r="J19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" t="s">
-        <v>573</v>
-      </c>
-      <c r="D20" s="14">
-        <v>17642455</v>
-      </c>
-      <c r="E20" t="s">
-        <v>462</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I20" t="s">
-        <v>688</v>
-      </c>
-      <c r="J20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" t="s">
-        <v>574</v>
-      </c>
-      <c r="D21" s="14">
-        <v>17693018</v>
-      </c>
-      <c r="E21" t="s">
-        <v>463</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I21" t="s">
-        <v>688</v>
-      </c>
-      <c r="J21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C22" t="s">
-        <v>575</v>
-      </c>
-      <c r="D22" s="14">
-        <v>17249295</v>
-      </c>
-      <c r="E22" t="s">
-        <v>464</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I22" t="s">
-        <v>688</v>
-      </c>
-      <c r="J22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C23" t="s">
-        <v>576</v>
-      </c>
-      <c r="D23" s="14">
-        <v>17265738</v>
-      </c>
-      <c r="E23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I23" t="s">
-        <v>688</v>
-      </c>
-      <c r="J23" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" t="s">
-        <v>405</v>
-      </c>
-      <c r="C24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="14">
-        <v>77736530</v>
-      </c>
-      <c r="E24" t="s">
-        <v>466</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I24" t="s">
-        <v>689</v>
-      </c>
-      <c r="J24" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" t="s">
-        <v>578</v>
-      </c>
-      <c r="D25" s="14">
-        <v>17308381</v>
-      </c>
-      <c r="E25" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I25" t="s">
-        <v>689</v>
-      </c>
-      <c r="J25" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B26" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" t="s">
-        <v>579</v>
-      </c>
-      <c r="D26" s="14">
-        <v>16928050</v>
-      </c>
-      <c r="E26" t="s">
-        <v>468</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I26" t="s">
-        <v>689</v>
-      </c>
-      <c r="J26" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" t="s">
-        <v>580</v>
-      </c>
-      <c r="D27" s="14">
-        <v>17745862</v>
-      </c>
-      <c r="E27" t="s">
-        <v>469</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I27" t="s">
-        <v>689</v>
-      </c>
-      <c r="J27" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B28" t="s">
-        <v>407</v>
-      </c>
-      <c r="C28" t="s">
-        <v>581</v>
-      </c>
-      <c r="D28" s="14">
-        <v>17986175</v>
-      </c>
-      <c r="E28" t="s">
-        <v>470</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I28" t="s">
-        <v>690</v>
-      </c>
-      <c r="J28" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B29" t="s">
-        <v>408</v>
-      </c>
-      <c r="C29" t="s">
-        <v>582</v>
-      </c>
-      <c r="D29" s="14">
-        <v>17478494</v>
-      </c>
-      <c r="E29" t="s">
-        <v>471</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I29" t="s">
-        <v>690</v>
-      </c>
-      <c r="J29" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="L4" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D30" s="14">
-        <v>17511042</v>
-      </c>
-      <c r="E30" t="s">
-        <v>472</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I30" t="s">
-        <v>690</v>
-      </c>
-      <c r="J30" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C31" t="s">
-        <v>584</v>
-      </c>
-      <c r="D31" s="14">
-        <v>17420859</v>
-      </c>
-      <c r="E31" t="s">
-        <v>473</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I31" t="s">
-        <v>690</v>
-      </c>
-      <c r="J31" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B32" t="s">
-        <v>410</v>
-      </c>
-      <c r="C32" t="s">
-        <v>585</v>
-      </c>
-      <c r="D32" s="14">
-        <v>17829322</v>
-      </c>
-      <c r="E32" t="s">
-        <v>474</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D33" s="14">
-        <v>77661058</v>
-      </c>
-      <c r="E33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C34" t="s">
-        <v>587</v>
-      </c>
-      <c r="D34" s="14">
-        <v>17705030</v>
-      </c>
-      <c r="E34" t="s">
-        <v>476</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I34" t="s">
-        <v>692</v>
-      </c>
-      <c r="J34" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B35" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" t="s">
-        <v>588</v>
-      </c>
-      <c r="D35" s="14">
-        <v>17346506</v>
-      </c>
-      <c r="E35" t="s">
-        <v>477</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I35" t="s">
-        <v>693</v>
-      </c>
-      <c r="J35" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" t="s">
-        <v>373</v>
-      </c>
-      <c r="C36" t="s">
-        <v>589</v>
-      </c>
-      <c r="D36" s="14">
-        <v>17705091</v>
-      </c>
-      <c r="E36" t="s">
-        <v>478</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I36" t="s">
-        <v>694</v>
-      </c>
-      <c r="J36" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" t="s">
-        <v>590</v>
-      </c>
-      <c r="D37" s="14">
-        <v>17657852</v>
-      </c>
-      <c r="E37" t="s">
-        <v>479</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I37" t="s">
-        <v>695</v>
-      </c>
-      <c r="J37" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B38" t="s">
-        <v>412</v>
-      </c>
-      <c r="C38" t="s">
-        <v>591</v>
-      </c>
-      <c r="D38" s="14">
-        <v>17321582</v>
-      </c>
-      <c r="E38" t="s">
-        <v>480</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I38" t="s">
-        <v>696</v>
-      </c>
-      <c r="J38" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" t="s">
-        <v>340</v>
-      </c>
-      <c r="C39" t="s">
-        <v>592</v>
-      </c>
-      <c r="D39" s="14">
-        <v>77305269</v>
-      </c>
-      <c r="E39" t="s">
-        <v>481</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B40" t="s">
-        <v>348</v>
-      </c>
-      <c r="C40" t="s">
-        <v>593</v>
-      </c>
-      <c r="D40" s="14">
-        <v>17606306</v>
-      </c>
-      <c r="E40" t="s">
-        <v>482</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B41" t="s">
-        <v>413</v>
-      </c>
-      <c r="C41" t="s">
-        <v>594</v>
-      </c>
-      <c r="D41" s="14">
-        <v>16928475</v>
-      </c>
-      <c r="E41" t="s">
-        <v>483</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I41" t="s">
-        <v>697</v>
-      </c>
-      <c r="J41" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B42" t="s">
-        <v>414</v>
-      </c>
-      <c r="C42" t="s">
-        <v>595</v>
-      </c>
-      <c r="D42" s="14">
-        <v>77858930</v>
-      </c>
-      <c r="E42" t="s">
-        <v>484</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I42" t="s">
-        <v>697</v>
-      </c>
-      <c r="J42" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B43" t="s">
-        <v>373</v>
-      </c>
-      <c r="C43" t="s">
-        <v>596</v>
-      </c>
-      <c r="D43" s="14">
-        <v>77785892</v>
-      </c>
-      <c r="E43" t="s">
-        <v>485</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I43" t="s">
-        <v>698</v>
-      </c>
-      <c r="J43" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B44" t="s">
-        <v>415</v>
-      </c>
-      <c r="C44" t="s">
-        <v>597</v>
-      </c>
-      <c r="D44" s="14">
-        <v>17268435</v>
-      </c>
-      <c r="E44" t="s">
-        <v>486</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I44" t="s">
-        <v>699</v>
-      </c>
-      <c r="J44" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B45" t="s">
-        <v>361</v>
-      </c>
-      <c r="C45" t="s">
-        <v>598</v>
-      </c>
-      <c r="D45" s="14">
-        <v>17929196</v>
-      </c>
-      <c r="E45" t="s">
-        <v>487</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I45" t="s">
-        <v>700</v>
-      </c>
-      <c r="J45" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B46" t="s">
-        <v>402</v>
-      </c>
-      <c r="C46" t="s">
-        <v>599</v>
-      </c>
-      <c r="D46" s="14">
-        <v>17520688</v>
-      </c>
-      <c r="E46" t="s">
-        <v>488</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I46" t="s">
-        <v>701</v>
-      </c>
-      <c r="J46" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B47" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" t="s">
-        <v>600</v>
-      </c>
-      <c r="D47" s="14">
-        <v>17825575</v>
-      </c>
-      <c r="E47" t="s">
-        <v>489</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I47" t="s">
-        <v>702</v>
-      </c>
-      <c r="J47" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B48" t="s">
-        <v>417</v>
-      </c>
-      <c r="C48" t="s">
-        <v>601</v>
-      </c>
-      <c r="D48" s="14">
-        <v>17971485</v>
-      </c>
-      <c r="E48" t="s">
-        <v>490</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I48" t="s">
-        <v>703</v>
-      </c>
-      <c r="J48" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" t="s">
-        <v>401</v>
-      </c>
-      <c r="C49" t="s">
-        <v>602</v>
-      </c>
-      <c r="D49" s="14">
-        <v>17905905</v>
-      </c>
-      <c r="E49" t="s">
-        <v>491</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" t="s">
-        <v>374</v>
-      </c>
-      <c r="C50" t="s">
-        <v>603</v>
-      </c>
-      <c r="D50" s="14">
-        <v>17954600</v>
-      </c>
-      <c r="E50" t="s">
-        <v>492</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I50" t="s">
-        <v>705</v>
-      </c>
-      <c r="J50" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B51" t="s">
-        <v>418</v>
-      </c>
-      <c r="C51" t="s">
-        <v>604</v>
-      </c>
-      <c r="D51" s="14">
-        <v>17769834</v>
-      </c>
-      <c r="E51" t="s">
-        <v>493</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I51" t="s">
-        <v>706</v>
-      </c>
-      <c r="J51" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" t="s">
-        <v>605</v>
-      </c>
-      <c r="D52" s="14">
-        <v>17800250</v>
-      </c>
-      <c r="E52" t="s">
-        <v>494</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I52" t="s">
-        <v>707</v>
-      </c>
-      <c r="J52" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B53" t="s">
-        <v>416</v>
-      </c>
-      <c r="C53" t="s">
-        <v>606</v>
-      </c>
-      <c r="D53" s="14">
-        <v>77446901</v>
-      </c>
-      <c r="E53" t="s">
-        <v>495</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>708</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B54" t="s">
-        <v>419</v>
-      </c>
-      <c r="C54" t="s">
-        <v>607</v>
-      </c>
-      <c r="D54" s="14">
-        <v>17669410</v>
-      </c>
-      <c r="E54" t="s">
-        <v>496</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I54" t="s">
-        <v>709</v>
-      </c>
-      <c r="J54" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B55" t="s">
-        <v>420</v>
-      </c>
-      <c r="C55" t="s">
-        <v>608</v>
-      </c>
-      <c r="D55" s="14">
-        <v>17984916</v>
-      </c>
-      <c r="E55" t="s">
-        <v>497</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I55" t="s">
-        <v>710</v>
-      </c>
-      <c r="J55" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B56" t="s">
-        <v>421</v>
-      </c>
-      <c r="C56" t="s">
-        <v>609</v>
-      </c>
-      <c r="D56" s="14">
-        <v>17753386</v>
-      </c>
-      <c r="E56" t="s">
-        <v>498</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I56" t="s">
-        <v>711</v>
-      </c>
-      <c r="J56" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B57" t="s">
-        <v>422</v>
-      </c>
-      <c r="C57" t="s">
-        <v>610</v>
-      </c>
-      <c r="D57" s="14">
-        <v>17822105</v>
-      </c>
-      <c r="E57" t="s">
-        <v>499</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I57" t="s">
-        <v>712</v>
-      </c>
-      <c r="J57" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B58" t="s">
-        <v>340</v>
-      </c>
-      <c r="C58" t="s">
-        <v>611</v>
-      </c>
-      <c r="D58" s="14">
-        <v>77274655</v>
-      </c>
-      <c r="E58" t="s">
-        <v>500</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I58" t="s">
-        <v>713</v>
-      </c>
-      <c r="J58" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B59" t="s">
-        <v>423</v>
-      </c>
-      <c r="C59" t="s">
-        <v>612</v>
-      </c>
-      <c r="D59" s="14">
-        <v>17822105</v>
-      </c>
-      <c r="E59" t="s">
-        <v>501</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I59" t="s">
-        <v>714</v>
-      </c>
-      <c r="J59" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B60" t="s">
-        <v>373</v>
-      </c>
-      <c r="C60" t="s">
-        <v>613</v>
-      </c>
-      <c r="D60" s="14">
-        <v>17712487</v>
-      </c>
-      <c r="E60" t="s">
-        <v>502</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I60" t="s">
-        <v>715</v>
-      </c>
-      <c r="J60" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B61" t="s">
-        <v>337</v>
-      </c>
-      <c r="C61" t="s">
-        <v>614</v>
-      </c>
-      <c r="D61" s="14">
-        <v>17690216</v>
-      </c>
-      <c r="E61" t="s">
-        <v>503</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I61" t="s">
-        <v>716</v>
-      </c>
-      <c r="J61" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B62" t="s">
-        <v>340</v>
-      </c>
-      <c r="C62" t="s">
-        <v>615</v>
-      </c>
-      <c r="D62" s="14">
-        <v>17727795</v>
-      </c>
-      <c r="E62" t="s">
-        <v>504</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I62" t="s">
-        <v>717</v>
-      </c>
-      <c r="J62" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B63" t="s">
-        <v>424</v>
-      </c>
-      <c r="C63" t="s">
-        <v>616</v>
-      </c>
-      <c r="D63" s="14">
-        <v>77631995</v>
-      </c>
-      <c r="E63" t="s">
-        <v>505</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I63" t="s">
-        <v>718</v>
-      </c>
-      <c r="J63" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B64" t="s">
-        <v>401</v>
-      </c>
-      <c r="C64" t="s">
-        <v>617</v>
-      </c>
-      <c r="D64" s="14">
-        <v>17849447</v>
-      </c>
-      <c r="E64" t="s">
-        <v>506</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B65" t="s">
-        <v>425</v>
-      </c>
-      <c r="C65" t="s">
-        <v>618</v>
-      </c>
-      <c r="D65" s="14">
-        <v>17618809</v>
-      </c>
-      <c r="E65" t="s">
-        <v>507</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I65" t="s">
-        <v>719</v>
-      </c>
-      <c r="J65" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B66" t="s">
-        <v>416</v>
-      </c>
-      <c r="C66" t="s">
-        <v>619</v>
-      </c>
-      <c r="D66" s="14">
-        <v>17581693</v>
-      </c>
-      <c r="E66" t="s">
-        <v>508</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I66" t="s">
-        <v>720</v>
-      </c>
-      <c r="J66" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B67" t="s">
-        <v>416</v>
-      </c>
-      <c r="C67" t="s">
-        <v>620</v>
-      </c>
-      <c r="D67" s="14">
-        <v>17907731</v>
-      </c>
-      <c r="E67" t="s">
-        <v>509</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I67" t="s">
-        <v>721</v>
-      </c>
-      <c r="J67" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B68" t="s">
-        <v>426</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="D68" s="15">
-        <v>17962726</v>
-      </c>
-      <c r="E68" t="s">
-        <v>510</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I68" t="s">
-        <v>722</v>
-      </c>
-      <c r="J68" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C69" t="s">
-        <v>622</v>
-      </c>
-      <c r="D69" s="14">
-        <v>17962661</v>
-      </c>
-      <c r="E69" t="s">
-        <v>511</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I69" t="s">
-        <v>723</v>
-      </c>
-      <c r="J69" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B70" t="s">
-        <v>395</v>
-      </c>
-      <c r="C70" t="s">
-        <v>623</v>
-      </c>
-      <c r="D70" s="14">
-        <v>17980826</v>
-      </c>
-      <c r="E70" t="s">
-        <v>512</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I70" t="s">
-        <v>724</v>
-      </c>
-      <c r="J70" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" t="s">
-        <v>337</v>
-      </c>
-      <c r="C71" t="s">
-        <v>624</v>
-      </c>
-      <c r="D71" s="14">
-        <v>17540984</v>
-      </c>
-      <c r="E71" t="s">
-        <v>513</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B72" t="s">
-        <v>427</v>
-      </c>
-      <c r="C72" t="s">
-        <v>625</v>
-      </c>
-      <c r="D72" s="14">
-        <v>17894588</v>
-      </c>
-      <c r="E72" t="s">
-        <v>514</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I72" t="s">
-        <v>726</v>
-      </c>
-      <c r="J72" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B73" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" t="s">
-        <v>626</v>
-      </c>
-      <c r="D73" s="14">
-        <v>17413081</v>
-      </c>
-      <c r="E73" t="s">
-        <v>515</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I73" t="s">
-        <v>727</v>
-      </c>
-      <c r="J73" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B74" t="s">
-        <v>428</v>
-      </c>
-      <c r="C74" t="s">
-        <v>627</v>
-      </c>
-      <c r="D74" s="14">
-        <v>17639416</v>
-      </c>
-      <c r="E74" t="s">
-        <v>516</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I74" t="s">
-        <v>728</v>
-      </c>
-      <c r="J74" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B75" t="s">
-        <v>429</v>
-      </c>
-      <c r="C75" t="s">
-        <v>628</v>
-      </c>
-      <c r="D75" s="14">
-        <v>17647793</v>
-      </c>
-      <c r="E75" t="s">
-        <v>517</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I75" t="s">
-        <v>729</v>
-      </c>
-      <c r="J75" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B76" t="s">
-        <v>373</v>
-      </c>
-      <c r="C76" t="s">
-        <v>629</v>
-      </c>
-      <c r="D76" s="14">
-        <v>17532158</v>
-      </c>
-      <c r="E76" t="s">
-        <v>518</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I76" t="s">
-        <v>730</v>
-      </c>
-      <c r="J76" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B77" t="s">
-        <v>326</v>
-      </c>
-      <c r="C77" t="s">
-        <v>630</v>
-      </c>
-      <c r="D77" s="14">
-        <v>17620014</v>
-      </c>
-      <c r="E77" t="s">
-        <v>519</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="J77" s="20" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B78" t="s">
-        <v>401</v>
-      </c>
-      <c r="C78" t="s">
-        <v>631</v>
-      </c>
-      <c r="D78" s="14">
-        <v>17572256</v>
-      </c>
-      <c r="E78" t="s">
-        <v>520</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I78" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="J78" s="20" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B79" t="s">
-        <v>406</v>
-      </c>
-      <c r="C79" t="s">
-        <v>632</v>
-      </c>
-      <c r="D79" s="14">
-        <v>17411104</v>
-      </c>
-      <c r="E79" t="s">
-        <v>521</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I79" t="s">
-        <v>732</v>
-      </c>
-      <c r="J79" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B80" t="s">
-        <v>430</v>
-      </c>
-      <c r="C80" t="s">
-        <v>633</v>
-      </c>
-      <c r="D80" s="14">
-        <v>17440418</v>
-      </c>
-      <c r="E80" t="s">
-        <v>522</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I80" t="s">
-        <v>733</v>
-      </c>
-      <c r="J80" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B81" t="s">
-        <v>416</v>
-      </c>
-      <c r="C81" t="s">
-        <v>634</v>
-      </c>
-      <c r="D81" s="14">
-        <v>17519795</v>
-      </c>
-      <c r="E81" t="s">
-        <v>523</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I81" t="s">
-        <v>734</v>
-      </c>
-      <c r="J81" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B82" t="s">
-        <v>431</v>
-      </c>
-      <c r="C82" t="s">
-        <v>635</v>
-      </c>
-      <c r="D82" s="14">
-        <v>77266964</v>
-      </c>
-      <c r="E82" t="s">
-        <v>524</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I82" t="s">
-        <v>735</v>
-      </c>
-      <c r="J82" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B83" t="s">
-        <v>432</v>
-      </c>
-      <c r="C83" t="s">
-        <v>636</v>
-      </c>
-      <c r="D83" s="14">
-        <v>17562500</v>
-      </c>
-      <c r="E83" t="s">
-        <v>525</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I83" t="s">
-        <v>736</v>
-      </c>
-      <c r="J83" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B84" t="s">
-        <v>331</v>
-      </c>
-      <c r="C84" t="s">
-        <v>637</v>
-      </c>
-      <c r="D84" s="14">
-        <v>77666636</v>
-      </c>
-      <c r="E84" t="s">
-        <v>526</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I84" t="s">
-        <v>737</v>
-      </c>
-      <c r="J84" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B85" t="s">
-        <v>426</v>
-      </c>
-      <c r="C85" t="s">
-        <v>638</v>
-      </c>
-      <c r="D85" s="14">
-        <v>77283565</v>
-      </c>
-      <c r="E85" t="s">
-        <v>527</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I85" t="s">
-        <v>738</v>
-      </c>
-      <c r="J85" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B86" t="s">
-        <v>416</v>
-      </c>
-      <c r="C86" t="s">
-        <v>639</v>
-      </c>
-      <c r="D86" s="14">
-        <v>77332180</v>
-      </c>
-      <c r="E86" t="s">
-        <v>528</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I86" t="s">
-        <v>739</v>
-      </c>
-      <c r="J86" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B87" t="s">
-        <v>401</v>
-      </c>
-      <c r="C87" t="s">
-        <v>640</v>
-      </c>
-      <c r="D87" s="14">
-        <v>17686723</v>
-      </c>
-      <c r="E87" t="s">
-        <v>529</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I87" t="s">
-        <v>740</v>
-      </c>
-      <c r="J87" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B88" t="s">
-        <v>429</v>
-      </c>
-      <c r="C88" t="s">
-        <v>641</v>
-      </c>
-      <c r="D88" s="14">
-        <v>17643087</v>
-      </c>
-      <c r="E88" t="s">
-        <v>530</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I88" t="s">
-        <v>741</v>
-      </c>
-      <c r="J88" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B89" t="s">
-        <v>364</v>
-      </c>
-      <c r="C89" t="s">
-        <v>642</v>
-      </c>
-      <c r="D89" s="14">
-        <v>77761468</v>
-      </c>
-      <c r="E89" t="s">
-        <v>531</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I89" t="s">
-        <v>742</v>
-      </c>
-      <c r="J89" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B90" t="s">
-        <v>433</v>
-      </c>
-      <c r="C90" t="s">
-        <v>643</v>
-      </c>
-      <c r="D90" s="14">
-        <v>17622872</v>
-      </c>
-      <c r="E90" t="s">
-        <v>532</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B91" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" t="s">
-        <v>644</v>
-      </c>
-      <c r="D91" s="14">
-        <v>77295611</v>
-      </c>
-      <c r="E91" t="s">
-        <v>533</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I91" t="s">
-        <v>744</v>
-      </c>
-      <c r="J91" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B92" t="s">
-        <v>337</v>
-      </c>
-      <c r="C92" t="s">
-        <v>645</v>
-      </c>
-      <c r="D92" s="14">
-        <v>77272027</v>
-      </c>
-      <c r="E92" t="s">
-        <v>534</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="J92" s="19" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" t="s">
-        <v>646</v>
-      </c>
-      <c r="D93" s="14">
-        <v>17396658</v>
-      </c>
-      <c r="E93" t="s">
-        <v>535</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I93" t="s">
-        <v>746</v>
-      </c>
-      <c r="J93" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" t="s">
-        <v>434</v>
-      </c>
-      <c r="C94" t="s">
-        <v>647</v>
-      </c>
-      <c r="D94" s="14">
-        <v>17929341</v>
-      </c>
-      <c r="E94" t="s">
-        <v>536</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I94" t="s">
-        <v>743</v>
-      </c>
-      <c r="J94" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B95" t="s">
-        <v>435</v>
-      </c>
-      <c r="C95" t="s">
-        <v>648</v>
-      </c>
-      <c r="D95" s="14">
-        <v>77304272</v>
-      </c>
-      <c r="E95" t="s">
-        <v>537</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I95" t="s">
-        <v>747</v>
-      </c>
-      <c r="J95" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B96" t="s">
-        <v>436</v>
-      </c>
-      <c r="C96" t="s">
-        <v>649</v>
-      </c>
-      <c r="D96" s="14">
-        <v>77293689</v>
-      </c>
-      <c r="E96" t="s">
-        <v>538</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I96" t="s">
-        <v>725</v>
-      </c>
-      <c r="J96" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B97" t="s">
-        <v>437</v>
-      </c>
-      <c r="C97" t="s">
-        <v>650</v>
-      </c>
-      <c r="D97" s="14">
-        <v>77366368</v>
-      </c>
-      <c r="E97" t="s">
-        <v>539</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I97" t="s">
-        <v>748</v>
-      </c>
-      <c r="J97" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B98" t="s">
-        <v>438</v>
-      </c>
-      <c r="C98" t="s">
-        <v>651</v>
-      </c>
-      <c r="D98" s="14">
-        <v>17509597</v>
-      </c>
-      <c r="E98" t="s">
-        <v>540</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I98" t="s">
-        <v>748</v>
-      </c>
-      <c r="J98" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B99" t="s">
-        <v>439</v>
-      </c>
-      <c r="C99" t="s">
-        <v>652</v>
-      </c>
-      <c r="D99" s="14">
-        <v>17944460</v>
-      </c>
-      <c r="E99" t="s">
-        <v>541</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I99" t="s">
-        <v>749</v>
-      </c>
-      <c r="J99" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B100" t="s">
-        <v>406</v>
-      </c>
-      <c r="C100" t="s">
-        <v>653</v>
-      </c>
-      <c r="D100" s="14">
-        <v>17882489</v>
-      </c>
-      <c r="E100" t="s">
-        <v>542</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I100" t="s">
-        <v>749</v>
-      </c>
-      <c r="J100" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B101" t="s">
-        <v>430</v>
-      </c>
-      <c r="C101" t="s">
-        <v>654</v>
-      </c>
-      <c r="D101" s="14">
-        <v>17692859</v>
-      </c>
-      <c r="E101" t="s">
-        <v>543</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I101" t="s">
-        <v>749</v>
-      </c>
-      <c r="J101" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B102" t="s">
-        <v>347</v>
-      </c>
-      <c r="C102" t="s">
-        <v>655</v>
-      </c>
-      <c r="D102" s="14">
-        <v>17690614</v>
-      </c>
-      <c r="E102" t="s">
-        <v>544</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I102" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="J102" s="18" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B103" t="s">
-        <v>373</v>
-      </c>
-      <c r="C103" t="s">
-        <v>656</v>
-      </c>
-      <c r="D103" s="14">
-        <v>17667581</v>
-      </c>
-      <c r="E103" t="s">
-        <v>545</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I103" t="s">
-        <v>750</v>
-      </c>
-      <c r="J103" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B104" t="s">
-        <v>373</v>
-      </c>
-      <c r="C104" t="s">
-        <v>657</v>
-      </c>
-      <c r="D104" s="14">
-        <v>17810520</v>
-      </c>
-      <c r="E104" t="s">
-        <v>546</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I104" t="s">
-        <v>751</v>
-      </c>
-      <c r="J104" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B105" t="s">
-        <v>440</v>
-      </c>
-      <c r="C105" t="s">
-        <v>658</v>
-      </c>
-      <c r="D105" s="14">
-        <v>17852022</v>
-      </c>
-      <c r="E105" t="s">
-        <v>547</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G105" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I105" t="s">
-        <v>752</v>
-      </c>
-      <c r="J105" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B106" t="s">
-        <v>347</v>
-      </c>
-      <c r="C106" t="s">
-        <v>659</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="E106" t="s">
-        <v>548</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I106" t="s">
-        <v>753</v>
-      </c>
-      <c r="J106" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B107" t="s">
-        <v>441</v>
-      </c>
-      <c r="C107" t="s">
-        <v>660</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="E107" t="s">
-        <v>549</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I107" t="s">
-        <v>754</v>
-      </c>
-      <c r="J107" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B108" t="s">
-        <v>442</v>
-      </c>
-      <c r="C108" t="s">
-        <v>661</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="E108" t="s">
-        <v>550</v>
-      </c>
-      <c r="F108" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I108" t="s">
-        <v>755</v>
-      </c>
-      <c r="J108" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B109" t="s">
-        <v>430</v>
-      </c>
-      <c r="C109" t="s">
-        <v>662</v>
-      </c>
-      <c r="D109" s="14">
-        <v>17710752</v>
-      </c>
-      <c r="E109" t="s">
-        <v>551</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I109" t="s">
-        <v>756</v>
-      </c>
-      <c r="J109" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B110" t="s">
-        <v>330</v>
-      </c>
-      <c r="C110" t="s">
-        <v>663</v>
-      </c>
-      <c r="D110" s="14">
-        <v>17667672</v>
-      </c>
-      <c r="E110" t="s">
-        <v>552</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I110" t="s">
-        <v>757</v>
-      </c>
-      <c r="J110" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B111" t="s">
-        <v>416</v>
-      </c>
-      <c r="C111" t="s">
-        <v>664</v>
-      </c>
-      <c r="D111" s="14">
-        <v>17988277</v>
-      </c>
-      <c r="E111" t="s">
-        <v>553</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I111" t="s">
-        <v>758</v>
-      </c>
-      <c r="J111" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B112" t="s">
-        <v>443</v>
-      </c>
-      <c r="C112" t="s">
-        <v>665</v>
-      </c>
-      <c r="D112" s="14">
-        <v>17965252</v>
-      </c>
-      <c r="E112" t="s">
-        <v>554</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="G112" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H112" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="I112" t="s">
-        <v>758</v>
-      </c>
-      <c r="J112" t="s">
-        <v>758</v>
-      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.5">
+      <c r="B5" s="6"/>
+      <c r="E5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5">
+      <c r="B6" s="6"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5">
+      <c r="B7" s="6"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5">
+      <c r="B8" s="6"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5">
+      <c r="B9" s="6"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5">
+      <c r="B10" s="6"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5">
+      <c r="B11" s="6"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5">
+      <c r="B12" s="6"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.5">
+      <c r="B13" s="6"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.5">
+      <c r="B14" s="6"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5">
+      <c r="B15" s="6"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5">
+      <c r="B16" s="6"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.5">
+      <c r="B17" s="6"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.5">
+      <c r="B18" s="6"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.5">
+      <c r="B19" s="6"/>
+      <c r="E19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.5">
+      <c r="B20" s="6"/>
+      <c r="E20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.5">
+      <c r="B21" s="6"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.5">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.5">
+      <c r="B23" s="6"/>
+      <c r="E23" s="14"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.5">
+      <c r="E24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.5">
+      <c r="B25" s="6"/>
+      <c r="E25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.5">
+      <c r="B26" s="6"/>
+      <c r="E26" s="14"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="14"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.5">
+      <c r="E28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.5">
+      <c r="B29" s="6"/>
+      <c r="E29" s="14"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.5">
+      <c r="B30" s="6"/>
+      <c r="E30" s="14"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.5">
+      <c r="B31" s="6"/>
+      <c r="E31" s="14"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.5">
+      <c r="B32" s="7"/>
+      <c r="E32" s="14"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.5">
+      <c r="B33" s="7"/>
+      <c r="E33" s="14"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.5">
+      <c r="B34" s="7"/>
+      <c r="E34" s="14"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.5">
+      <c r="B35" s="7"/>
+      <c r="E35" s="14"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.5">
+      <c r="B36" s="7"/>
+      <c r="E36" s="14"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.5">
+      <c r="B37" s="7"/>
+      <c r="E37" s="14"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.5">
+      <c r="B38" s="7"/>
+      <c r="E38" s="14"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.5">
+      <c r="B39" s="7"/>
+      <c r="E39" s="14"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.5">
+      <c r="B40" s="7"/>
+      <c r="E40" s="14"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.5">
+      <c r="B41" s="8"/>
+      <c r="E41" s="14"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.5">
+      <c r="B42" s="9"/>
+      <c r="E42" s="14"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.5">
+      <c r="B43" s="10"/>
+      <c r="E43" s="14"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.5">
+      <c r="B44" s="11"/>
+      <c r="E44" s="14"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.5">
+      <c r="B45" s="10"/>
+      <c r="E45" s="14"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.5">
+      <c r="B46" s="10"/>
+      <c r="E46" s="14"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.5">
+      <c r="B47" s="10"/>
+      <c r="E47" s="14"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="2:11" ht="15.5">
+      <c r="B48" s="10"/>
+      <c r="E48" s="14"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.5">
+      <c r="B49" s="10"/>
+      <c r="E49" s="14"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.5">
+      <c r="B50" s="10"/>
+      <c r="E50" s="14"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.5">
+      <c r="B51" s="10"/>
+      <c r="E51" s="14"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.5">
+      <c r="B52" s="10"/>
+      <c r="E52" s="14"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.5">
+      <c r="B53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.5">
+      <c r="B54" s="10"/>
+      <c r="E54" s="14"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.5">
+      <c r="B55" s="10"/>
+      <c r="E55" s="14"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.5">
+      <c r="B56" s="10"/>
+      <c r="E56" s="14"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.5">
+      <c r="B57" s="10"/>
+      <c r="E57" s="14"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.5">
+      <c r="B58" s="10"/>
+      <c r="E58" s="14"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.5">
+      <c r="B59" s="10"/>
+      <c r="E59" s="14"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.5">
+      <c r="B60" s="10"/>
+      <c r="E60" s="14"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="2:11" ht="15.5">
+      <c r="B61" s="10"/>
+      <c r="E61" s="14"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="2:11" ht="15.5">
+      <c r="B62" s="6"/>
+      <c r="E62" s="14"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.5">
+      <c r="B63" s="10"/>
+      <c r="E63" s="14"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="2:11" ht="15.5">
+      <c r="B64" s="10"/>
+      <c r="E64" s="14"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="2:11" ht="15.5">
+      <c r="B65" s="10"/>
+      <c r="E65" s="14"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.5">
+      <c r="B66" s="10"/>
+      <c r="E66" s="14"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.5">
+      <c r="B67" s="10"/>
+      <c r="E67" s="14"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.5">
+      <c r="B68" s="10"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="15"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.5">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="E69" s="14"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.5">
+      <c r="B70" s="10"/>
+      <c r="E70" s="14"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="2:11" ht="15.5">
+      <c r="B71" s="10"/>
+      <c r="E71" s="14"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+    </row>
+    <row r="72" spans="2:11" ht="15.5">
+      <c r="B72" s="10"/>
+      <c r="E72" s="14"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="2:11" ht="15.5">
+      <c r="B73" s="10"/>
+      <c r="E73" s="14"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.5">
+      <c r="B74" s="10"/>
+      <c r="E74" s="14"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="2:11" ht="15.5">
+      <c r="B75" s="10"/>
+      <c r="E75" s="14"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="2:11" ht="15.5">
+      <c r="B76" s="10"/>
+      <c r="E76" s="14"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.5">
+      <c r="B77" s="10"/>
+      <c r="E77" s="14"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.5">
+      <c r="B78" s="10"/>
+      <c r="E78" s="14"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.5">
+      <c r="B79" s="10"/>
+      <c r="E79" s="14"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.5">
+      <c r="B80" s="10"/>
+      <c r="E80" s="14"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.5">
+      <c r="B81" s="10"/>
+      <c r="E81" s="14"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="2:11" ht="15.5">
+      <c r="B82" s="10"/>
+      <c r="E82" s="14"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.5">
+      <c r="B83" s="10"/>
+      <c r="E83" s="14"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="2:11" ht="15.5">
+      <c r="B84" s="10"/>
+      <c r="E84" s="14"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="2:11" ht="15.5">
+      <c r="B85" s="10"/>
+      <c r="E85" s="14"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="2:11" ht="15.5">
+      <c r="B86" s="10"/>
+      <c r="E86" s="14"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="2:11" ht="15.5">
+      <c r="B87" s="10"/>
+      <c r="E87" s="14"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="2:11" ht="15.5">
+      <c r="B88" s="10"/>
+      <c r="E88" s="14"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.5">
+      <c r="B89" s="10"/>
+      <c r="E89" s="14"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.5">
+      <c r="B90" s="10"/>
+      <c r="E90" s="14"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" ht="15.5">
+      <c r="B91" s="10"/>
+      <c r="E91" s="14"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="2:11" ht="15.5">
+      <c r="B92" s="10"/>
+      <c r="E92" s="14"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+    </row>
+    <row r="93" spans="2:11" ht="15.5">
+      <c r="B93" s="10"/>
+      <c r="E93" s="14"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.5">
+      <c r="B94" s="10"/>
+      <c r="E94" s="14"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="2:11" ht="15.5">
+      <c r="B95" s="10"/>
+      <c r="E95" s="14"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.5">
+      <c r="B96" s="10"/>
+      <c r="E96" s="14"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="2:11" ht="15.5">
+      <c r="B97" s="10"/>
+      <c r="E97" s="14"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.5">
+      <c r="B98" s="10"/>
+      <c r="E98" s="14"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="2:11" ht="15.5">
+      <c r="B99" s="10"/>
+      <c r="E99" s="14"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="2:11" ht="15.5">
+      <c r="B100" s="10"/>
+      <c r="E100" s="14"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.5">
+      <c r="B101" s="10"/>
+      <c r="E101" s="14"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="2:11" ht="15.5">
+      <c r="B102" s="10"/>
+      <c r="E102" s="14"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" spans="2:11" ht="15.5">
+      <c r="B103" s="12"/>
+      <c r="E103" s="14"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="2:11" ht="15.5">
+      <c r="B104" s="12"/>
+      <c r="E104" s="14"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="2:11" ht="15.5">
+      <c r="B105" s="12"/>
+      <c r="E105" s="14"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="2:11" ht="15.5">
+      <c r="B106" s="12"/>
+      <c r="E106" s="14"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="2:11" ht="15.5">
+      <c r="B107" s="12"/>
+      <c r="E107" s="14"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="2:11" ht="15.5">
+      <c r="B108" s="12"/>
+      <c r="E108" s="14"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="2:11" ht="15.5">
+      <c r="B109" s="12"/>
+      <c r="E109" s="14"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" spans="2:11" ht="15.5">
+      <c r="B110" s="12"/>
+      <c r="E110" s="14"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="2:11" ht="15.5">
+      <c r="B111" s="12"/>
+      <c r="E111" s="14"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="2:11" ht="15.5">
+      <c r="B112" s="12"/>
+      <c r="E112" s="14"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C112">
+  <conditionalFormatting sqref="D5:D112">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E112">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D112">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1" xr:uid="{3328D205-5170-4E1C-A8D5-F16375F52878}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{695F6FB0-38A2-4193-B756-9836FC4C2F76}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{976035F1-A20D-4E2D-83F2-088A4BDB2635}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{4F5C15A2-B4EA-4963-B065-8FD41C7F0271}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{3E15A67E-924F-453E-BDA8-D755BB010A5D}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{C4BCF506-1F6E-4114-991D-98D7ECEA4854}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{5E07BABD-4B5D-4EE2-8F17-2FFEE9E45601}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{0D2AD8FF-EB43-4C34-AE86-C70A6A117E2A}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{975A6AC7-250C-438D-9788-262C18928879}"/>
-    <hyperlink ref="F16" r:id="rId10" xr:uid="{3B62BE12-C0D6-4B54-AF0E-B40DA3E014DC}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{2ECD1646-5924-4404-9329-CD1D19AB70BB}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{D13A6DF3-6396-42E9-B50D-74D95BBE015E}"/>
-    <hyperlink ref="F22" r:id="rId13" xr:uid="{BF73AF3B-B3CF-474C-8233-769A7A5219D4}"/>
-    <hyperlink ref="F24" r:id="rId14" xr:uid="{6397BDE5-8626-483D-AB22-6F533255E201}"/>
-    <hyperlink ref="F26" r:id="rId15" xr:uid="{91191815-02EF-43AB-B875-60F0C99BC11F}"/>
-    <hyperlink ref="F28" r:id="rId16" xr:uid="{36061B07-CA7A-4120-9341-D4D3E89305E4}"/>
-    <hyperlink ref="F30" r:id="rId17" xr:uid="{B8FA7295-8BF9-46DB-933D-3D6178C7F68B}"/>
-    <hyperlink ref="F32" r:id="rId18" xr:uid="{BD4BD2D8-7B19-441E-8112-884A9F0C6953}"/>
-    <hyperlink ref="F34" r:id="rId19" xr:uid="{1A853A54-69B6-4D89-BAF0-F2CDD5FAAFD2}"/>
-    <hyperlink ref="F36" r:id="rId20" xr:uid="{A89A914B-BAD2-4415-8DE8-5A596D87853A}"/>
-    <hyperlink ref="F38" r:id="rId21" xr:uid="{3BC7715D-3CC6-4BB6-BF17-862016E49304}"/>
-    <hyperlink ref="F40" r:id="rId22" xr:uid="{AB107462-A7F8-4C79-98A2-20FAF98DB7DB}"/>
-    <hyperlink ref="F42" r:id="rId23" xr:uid="{590AAC9B-C3F0-4B3F-8AAA-1CCDA4A3535F}"/>
-    <hyperlink ref="F44" r:id="rId24" xr:uid="{65290EE7-F5A2-41E5-993C-FEB8F22F7B8C}"/>
-    <hyperlink ref="F46" r:id="rId25" xr:uid="{57F11181-01DA-41A1-91DB-D9060B560A70}"/>
-    <hyperlink ref="F48" r:id="rId26" xr:uid="{639D6E8F-EBFF-4DC5-AC9B-9C2BDE72692D}"/>
-    <hyperlink ref="F50" r:id="rId27" xr:uid="{50AFC8A9-6DDC-4C5C-B33F-08D62809E990}"/>
-    <hyperlink ref="F52" r:id="rId28" xr:uid="{1846437D-7230-43FD-9165-FD6F11F23EE1}"/>
-    <hyperlink ref="F54" r:id="rId29" xr:uid="{05D59D61-3735-44B5-8471-01688B62386E}"/>
-    <hyperlink ref="F56" r:id="rId30" xr:uid="{9A6C7F5C-AD39-4FEF-8AC2-B35174DE2614}"/>
-    <hyperlink ref="F58" r:id="rId31" xr:uid="{B0AF29DB-FD04-4BB1-A2F6-13CC70A7DDAB}"/>
-    <hyperlink ref="F60" r:id="rId32" xr:uid="{59144C18-F106-49D6-BDE3-96813341A2C9}"/>
-    <hyperlink ref="F62" r:id="rId33" xr:uid="{19D56206-213C-44CA-9B34-4A1755800FA7}"/>
-    <hyperlink ref="F64" r:id="rId34" xr:uid="{6440B892-DAAA-43C7-B0A1-75E6E5EA4AB8}"/>
-    <hyperlink ref="F66" r:id="rId35" xr:uid="{F9FA409E-B7DC-4E28-A511-870D3DB6BDC6}"/>
-    <hyperlink ref="F68" r:id="rId36" xr:uid="{212AEF28-25E8-486B-BFB8-FDB0D90F8A09}"/>
-    <hyperlink ref="F70" r:id="rId37" xr:uid="{4BC1FF83-2912-4D9A-932C-636CE89E5824}"/>
-    <hyperlink ref="F72" r:id="rId38" xr:uid="{D9F78C8D-F3D1-499D-8C2D-82286C0E8AF6}"/>
-    <hyperlink ref="F74" r:id="rId39" xr:uid="{27AAFD7D-4194-4681-A1E1-83D2311E75EF}"/>
-    <hyperlink ref="F76" r:id="rId40" xr:uid="{A86F2FBB-E4E1-4401-9F22-77E1B4018B59}"/>
-    <hyperlink ref="F78" r:id="rId41" xr:uid="{AD123976-1022-4570-B767-52A631AB981E}"/>
-    <hyperlink ref="F80" r:id="rId42" xr:uid="{5503EFB9-B903-45A9-8623-AA18C2E1D3FD}"/>
-    <hyperlink ref="F82" r:id="rId43" xr:uid="{5C0669BF-101E-4D38-9D92-FDC4CD2976F0}"/>
-    <hyperlink ref="F84" r:id="rId44" xr:uid="{2B351541-89C8-44B0-BB0C-1835A82CDEE2}"/>
-    <hyperlink ref="F86" r:id="rId45" xr:uid="{35F04BD3-D7BE-43D2-BD77-0004324F8D29}"/>
-    <hyperlink ref="F88" r:id="rId46" xr:uid="{8D7E1233-7915-4093-BFE3-4CA14EE66E0E}"/>
-    <hyperlink ref="F90" r:id="rId47" xr:uid="{CF656B19-5C45-422B-8090-1AA5AA3C6025}"/>
-    <hyperlink ref="F92" r:id="rId48" xr:uid="{E17B713C-969E-4525-92B2-17B9991AF53F}"/>
-    <hyperlink ref="F94" r:id="rId49" xr:uid="{D18E2112-0B1A-49AA-941D-2E9C2760C52C}"/>
-    <hyperlink ref="F96" r:id="rId50" xr:uid="{7990129C-9D69-490F-8E11-B6C64F64E512}"/>
-    <hyperlink ref="F98" r:id="rId51" xr:uid="{95412F80-D60A-475E-B118-94528025B19C}"/>
-    <hyperlink ref="F100" r:id="rId52" xr:uid="{8D5BF5FF-B672-4D80-9042-FC7E57F79E20}"/>
-    <hyperlink ref="F102" r:id="rId53" xr:uid="{4966F64B-1F88-4636-80E9-08F7BEC221EA}"/>
-    <hyperlink ref="F104" r:id="rId54" xr:uid="{A8A48647-B11A-4DE3-80FD-279A5660B9CE}"/>
-    <hyperlink ref="F106" r:id="rId55" xr:uid="{E059BACD-6768-4FEA-8486-2B23C606E639}"/>
-    <hyperlink ref="F108" r:id="rId56" xr:uid="{6981F734-648B-4A21-89A4-5901C33FFE2C}"/>
-    <hyperlink ref="F110" r:id="rId57" xr:uid="{29259755-1A02-40BF-8C4F-99C9933A3751}"/>
-    <hyperlink ref="F112" r:id="rId58" xr:uid="{50A25731-1D66-4152-95DF-839A20A466EB}"/>
-    <hyperlink ref="F5" r:id="rId59" xr:uid="{0C854938-D1EB-45BE-BC9E-738761D41D6E}"/>
-    <hyperlink ref="F7" r:id="rId60" xr:uid="{B477BB59-569E-4BBD-A1D3-F3DF1D1FCE89}"/>
-    <hyperlink ref="F9" r:id="rId61" xr:uid="{5EC90DC9-AB33-4005-950B-68B92046A9D3}"/>
-    <hyperlink ref="F11" r:id="rId62" xr:uid="{EC08E5FC-91C8-4D92-A16D-6440CC212017}"/>
-    <hyperlink ref="F13" r:id="rId63" xr:uid="{C646D504-6117-45F0-8900-8A9FB26F769C}"/>
-    <hyperlink ref="F15" r:id="rId64" xr:uid="{80109877-41B0-4299-8A01-58F0490EBBCE}"/>
-    <hyperlink ref="F17" r:id="rId65" xr:uid="{A7C3816C-164E-4778-A9B1-D77695481CFB}"/>
-    <hyperlink ref="F19" r:id="rId66" xr:uid="{37F10447-3DA9-46A4-9B02-085B7BDE2132}"/>
-    <hyperlink ref="F21" r:id="rId67" xr:uid="{EC3E9E6F-99CC-4AEE-BCA7-DEEC3548176F}"/>
-    <hyperlink ref="F23" r:id="rId68" xr:uid="{80B5A1A6-4A0D-4DDD-AE43-C1A6A4875125}"/>
-    <hyperlink ref="F25" r:id="rId69" xr:uid="{A6B04619-40FF-4C2A-BACC-F9E7F8E1DC21}"/>
-    <hyperlink ref="F27" r:id="rId70" xr:uid="{2A8C9936-FC84-4569-89B2-08171D6CEF29}"/>
-    <hyperlink ref="F29" r:id="rId71" xr:uid="{362EC7DD-8CA5-41DF-9355-56789803E9C6}"/>
-    <hyperlink ref="F31" r:id="rId72" xr:uid="{C81463E6-0970-4849-97BA-C2994937298F}"/>
-    <hyperlink ref="F33" r:id="rId73" xr:uid="{ECF86ACE-BDBA-4813-BE7E-3D5A0575442D}"/>
-    <hyperlink ref="F35" r:id="rId74" xr:uid="{43C8FFF2-8490-4F0F-BDF7-B4284D37BE6D}"/>
-    <hyperlink ref="F37" r:id="rId75" xr:uid="{BF194F7A-AD2B-4925-B964-BF26351E7DA7}"/>
-    <hyperlink ref="F39" r:id="rId76" xr:uid="{696BFE26-832B-4974-B518-329E053DEDEF}"/>
-    <hyperlink ref="F41" r:id="rId77" xr:uid="{5F6B885E-059A-473F-B65C-C1B4673A6693}"/>
-    <hyperlink ref="F43" r:id="rId78" xr:uid="{412A411A-4105-4A77-B46A-1A13D79415F2}"/>
-    <hyperlink ref="F45" r:id="rId79" xr:uid="{3919BA8A-53D1-4BD9-8563-6220980158AB}"/>
-    <hyperlink ref="F47" r:id="rId80" xr:uid="{D978BE55-F70B-4315-8911-EEFC0D3B7D0A}"/>
-    <hyperlink ref="F49" r:id="rId81" xr:uid="{BE197FE5-5B0C-4C12-A4F9-C1FFA463F56A}"/>
-    <hyperlink ref="F51" r:id="rId82" xr:uid="{1ED2ABEB-51F2-483F-A230-BF2D54848586}"/>
-    <hyperlink ref="F53" r:id="rId83" xr:uid="{74D21B6C-D9D0-4B12-BD9D-11780B8CA1FC}"/>
-    <hyperlink ref="F55" r:id="rId84" xr:uid="{BEDB307F-1FF5-4F5C-954B-9DBA498B1574}"/>
-    <hyperlink ref="F57" r:id="rId85" xr:uid="{3AB6905B-D3AE-4975-B97D-F8EE76232E9F}"/>
-    <hyperlink ref="F59" r:id="rId86" xr:uid="{2DD38602-8403-49E5-8D8E-95ED2C674640}"/>
-    <hyperlink ref="F61" r:id="rId87" xr:uid="{03C2B538-26A6-44E4-BD47-20DD8D0F6CC2}"/>
-    <hyperlink ref="F63" r:id="rId88" xr:uid="{CA024C14-08A5-4B07-9030-51CC8C07203D}"/>
-    <hyperlink ref="F65" r:id="rId89" xr:uid="{D786840E-D79F-40BB-B554-0CEA72B913AC}"/>
-    <hyperlink ref="F67" r:id="rId90" xr:uid="{6FB8DFE5-C2A4-480F-AA3A-744316B9F192}"/>
-    <hyperlink ref="F69" r:id="rId91" xr:uid="{B2B03CEF-EDE3-475C-8DD4-A503EAA681D5}"/>
-    <hyperlink ref="F71" r:id="rId92" xr:uid="{18A4EF23-8E08-41D7-94B3-9D27F627B6DB}"/>
-    <hyperlink ref="F73" r:id="rId93" xr:uid="{919E090C-DC14-445B-95B0-067A71A89E1A}"/>
-    <hyperlink ref="F75" r:id="rId94" xr:uid="{E44C2905-033C-4DD9-A09D-EF9534638218}"/>
-    <hyperlink ref="F77" r:id="rId95" xr:uid="{597B0F0B-9C44-4194-B409-39846F0977BE}"/>
-    <hyperlink ref="F79" r:id="rId96" xr:uid="{67BEE7AE-486A-4A3F-81FA-73B84284EFBF}"/>
-    <hyperlink ref="F81" r:id="rId97" xr:uid="{0D633B91-3DF8-4FC6-8D18-AA390AC6F516}"/>
-    <hyperlink ref="F83" r:id="rId98" xr:uid="{F4ACF0C7-8715-43C0-B617-C86D2C782BE6}"/>
-    <hyperlink ref="F85" r:id="rId99" xr:uid="{7C1BB46A-6FC9-45BB-81E3-6B60A1744C06}"/>
-    <hyperlink ref="F87" r:id="rId100" xr:uid="{450C9BB3-EF61-463E-AC5B-6FFF44B73991}"/>
-    <hyperlink ref="F89" r:id="rId101" xr:uid="{DA801F3F-A215-425C-8A73-8DEA17EA6665}"/>
-    <hyperlink ref="F91" r:id="rId102" xr:uid="{B710FBFE-4D87-4F95-8684-7D30D87F9005}"/>
-    <hyperlink ref="F93" r:id="rId103" xr:uid="{2BFC281D-D431-4143-95EB-3AA0B7CCE072}"/>
-    <hyperlink ref="F95" r:id="rId104" xr:uid="{CC7F9D58-31B4-44A5-8343-68F0E5271267}"/>
-    <hyperlink ref="F97" r:id="rId105" xr:uid="{F7AC15A0-DB61-4B4C-8F3D-788930F7F480}"/>
-    <hyperlink ref="F99" r:id="rId106" xr:uid="{6BB6DCE3-D972-4180-AD24-BEC58ED8713E}"/>
-    <hyperlink ref="F101" r:id="rId107" xr:uid="{AC300EA0-A0CD-4908-83C2-37D32A91235C}"/>
-    <hyperlink ref="F103" r:id="rId108" xr:uid="{B3BA4F9F-76E6-417E-8087-027538A4F444}"/>
-    <hyperlink ref="F105" r:id="rId109" xr:uid="{1857D9B1-8E48-4AB6-B5F7-61BD8E9F3472}"/>
-    <hyperlink ref="F107" r:id="rId110" xr:uid="{7FBD7213-40C4-48C0-B637-3075D4F2A9E7}"/>
-    <hyperlink ref="F109" r:id="rId111" xr:uid="{33F22317-FCEE-4480-B1D5-189BBBDD57EF}"/>
-    <hyperlink ref="F111" r:id="rId112" xr:uid="{7C90C27E-6759-43DC-81A1-E27036F506F0}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{6664CF81-947A-4964-894A-43DE57BE395E}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{1872D26E-6E91-4A39-8B43-B89EA6CDB7BA}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{E45D7984-F88D-4D37-A04C-803345611EB4}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{A7F3A580-DF19-4335-ADCF-57939E014DF7}"/>
+    <hyperlink ref="D3:D4" r:id="rId5" display="abc@gmail.com" xr:uid="{6E4E4F98-777E-4FB9-A5DF-7303683B321F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>